--- a/viruses/phage_num/phage_num_estimate.xlsx
+++ b/viruses/phage_num/phage_num_estimate.xlsx
@@ -423,7 +423,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>2.01320290971857e+30</v>
+        <v>2.013202909718567e+30</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -434,7 +434,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>5.33416892612491e+30</v>
+        <v>5.334168926124921e+30</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -445,13 +445,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>2.06071837911018e+30</v>
+        <v>2.060718379082384e+30</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="D4">
-        <v>63.6672301058081</v>
+        <v>63.66723010581094</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -459,13 +459,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>6.16644143732836e+29</v>
+        <v>6.166441437328365e+29</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
       <c r="D5">
-        <v>31.6227766016838</v>
+        <v>31.62277660168379</v>
       </c>
     </row>
   </sheetData>

--- a/viruses/phage_num/phage_num_estimate.xlsx
+++ b/viruses/phage_num/phage_num_estimate.xlsx
@@ -423,7 +423,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>2.013202909718567e+30</v>
+        <v>2.01320290971857e+30</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -434,7 +434,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>5.334168926124921e+30</v>
+        <v>4.84621681959859e+30</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -445,13 +445,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>2.060718379082384e+30</v>
+        <v>2.06071837908238e+30</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="D4">
-        <v>63.66723010581094</v>
+        <v>63.6672301058109</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -459,13 +459,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>6.166441437328365e+29</v>
+        <v>6.16644143732837e+29</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
       <c r="D5">
-        <v>31.62277660168379</v>
+        <v>31.6227766016838</v>
       </c>
     </row>
   </sheetData>

--- a/viruses/phage_num/phage_num_estimate.xlsx
+++ b/viruses/phage_num/phage_num_estimate.xlsx
@@ -34,10 +34,10 @@
     <t>Total number of phages in the marine deep subsurface</t>
   </si>
   <si>
+    <t>Total number of phages in soils</t>
+  </si>
+  <si>
     <t>Total number of phages in the terrestrial deep subsurface</t>
-  </si>
-  <si>
-    <t>Total number of phages in soils</t>
   </si>
   <si>
     <t>Number of individuals</t>
@@ -434,7 +434,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>4.84621681959859e+30</v>
+        <v>4.84621681959858e+30</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -445,13 +445,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>2.06071837908238e+30</v>
+        <v>6.16644143732836e+29</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="D4">
-        <v>63.6672301058109</v>
+        <v>31.6227766016838</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -459,13 +459,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>6.16644143732837e+29</v>
+        <v>2.06071837903623e+30</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
       <c r="D5">
-        <v>31.6227766016838</v>
+        <v>63.6672301058147</v>
       </c>
     </row>
   </sheetData>

--- a/viruses/phage_num/phage_num_estimate.xlsx
+++ b/viruses/phage_num/phage_num_estimate.xlsx
@@ -423,7 +423,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>2.01320290971857e+30</v>
+        <v>2.013202909718567e+30</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -434,7 +434,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>4.84621681959858e+30</v>
+        <v>4.846216819598588e+30</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -445,13 +445,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>6.16644143732836e+29</v>
+        <v>6.166441437328365e+29</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="D4">
-        <v>31.6227766016838</v>
+        <v>31.62277660168379</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -459,13 +459,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>2.06071837903623e+30</v>
+        <v>2.060718379080803e+30</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
       <c r="D5">
-        <v>63.6672301058147</v>
+        <v>63.66723010581008</v>
       </c>
     </row>
   </sheetData>
